--- a/DSA/Assignment2/counsellinghelper/Student.xlsx
+++ b/DSA/Assignment2/counsellinghelper/Student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C587A078-400C-4EA7-A362-6BC40C9FCB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A91034E-D02B-43E5-B193-112FB47C0093}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
-    <t>Mohit Sharma</t>
+    <t>Vaibhav</t>
   </si>
   <si>
     <t>Computer Science</t>
@@ -35,22 +35,22 @@
     <t>Mechanical</t>
   </si>
   <si>
-    <t>Shubham jain</t>
+    <t>Jitendra</t>
   </si>
   <si>
     <t>Electronics And Communication</t>
   </si>
   <si>
-    <t>Somi Vishnoi</t>
-  </si>
-  <si>
-    <t>Rajendra Singh Rathore</t>
-  </si>
-  <si>
-    <t>Rahul Sharma</t>
-  </si>
-  <si>
-    <t>Rahul Jangid</t>
+    <t>Kunal</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,10 +444,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -464,10 +464,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
